--- a/natmiOut/OldD2/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Cd200-Cd200r4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
@@ -92,9 +98,6 @@
   </si>
   <si>
     <t>Cd200r4</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
 </sst>
 </file>
@@ -452,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>69.69852027040849</v>
+        <v>70.0507755</v>
       </c>
       <c r="H2">
-        <v>69.69852027040849</v>
+        <v>140.101551</v>
       </c>
       <c r="I2">
-        <v>0.4998145499529841</v>
+        <v>0.485408695871283</v>
       </c>
       <c r="J2">
-        <v>0.4998145499529841</v>
+        <v>0.4148906539949664</v>
       </c>
       <c r="K2">
         <v>1</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M2">
-        <v>11.2865138646331</v>
+        <v>0.17637</v>
       </c>
       <c r="N2">
-        <v>11.2865138646331</v>
+        <v>0.35274</v>
       </c>
       <c r="O2">
-        <v>0.5233569713484389</v>
+        <v>0.00752214997436319</v>
       </c>
       <c r="P2">
-        <v>0.5233569713484389</v>
+        <v>0.005027372198794217</v>
       </c>
       <c r="Q2">
-        <v>786.6533153763767</v>
+        <v>12.354855274935</v>
       </c>
       <c r="R2">
-        <v>786.6533153763767</v>
+        <v>49.41942109974</v>
       </c>
       <c r="S2">
-        <v>0.2615814290992768</v>
+        <v>0.003651317009203841</v>
       </c>
       <c r="T2">
-        <v>0.2615814290992768</v>
+        <v>0.002085809739433845</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,123 +590,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>69.69852027040849</v>
+        <v>70.0507755</v>
       </c>
       <c r="H3">
-        <v>69.69852027040849</v>
+        <v>140.101551</v>
       </c>
       <c r="I3">
-        <v>0.4998145499529841</v>
+        <v>0.485408695871283</v>
       </c>
       <c r="J3">
-        <v>0.4998145499529841</v>
+        <v>0.4148906539949664</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>10.2790990583269</v>
+        <v>12.24224</v>
       </c>
       <c r="N3">
-        <v>10.2790990583269</v>
+        <v>36.72672</v>
       </c>
       <c r="O3">
-        <v>0.4766430286515611</v>
+        <v>0.5221294171466123</v>
       </c>
       <c r="P3">
-        <v>0.4766430286515611</v>
+        <v>0.52344188660458</v>
       </c>
       <c r="Q3">
-        <v>716.4379940783342</v>
+        <v>857.5784058571201</v>
       </c>
       <c r="R3">
-        <v>716.4379940783342</v>
+        <v>5145.47043514272</v>
       </c>
       <c r="S3">
-        <v>0.2382331208537073</v>
+        <v>0.2534461594531702</v>
       </c>
       <c r="T3">
-        <v>0.2382331208537073</v>
+        <v>0.2171711466617333</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.998552908682015</v>
+        <v>70.0507755</v>
       </c>
       <c r="H4">
-        <v>0.998552908682015</v>
+        <v>140.101551</v>
       </c>
       <c r="I4">
-        <v>0.007160715474601559</v>
+        <v>0.485408695871283</v>
       </c>
       <c r="J4">
-        <v>0.007160715474601559</v>
+        <v>0.4148906539949664</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.2865138646331</v>
+        <v>11.028144</v>
       </c>
       <c r="N4">
-        <v>11.2865138646331</v>
+        <v>33.084432</v>
       </c>
       <c r="O4">
-        <v>0.5233569713484389</v>
+        <v>0.4703484328790246</v>
       </c>
       <c r="P4">
-        <v>0.5233569713484389</v>
+        <v>0.4715307411966257</v>
       </c>
       <c r="Q4">
-        <v>11.27018124840927</v>
+        <v>772.530039525672</v>
       </c>
       <c r="R4">
-        <v>11.27018124840927</v>
+        <v>4635.180237154032</v>
       </c>
       <c r="S4">
-        <v>0.003747610363475372</v>
+        <v>0.228311219408909</v>
       </c>
       <c r="T4">
-        <v>0.003747610363475372</v>
+        <v>0.1956336975937993</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,309 +714,929 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.998552908682015</v>
+        <v>0.7450486666666666</v>
       </c>
       <c r="H5">
-        <v>0.998552908682015</v>
+        <v>2.235146</v>
       </c>
       <c r="I5">
-        <v>0.007160715474601559</v>
+        <v>0.005162728022151658</v>
       </c>
       <c r="J5">
-        <v>0.007160715474601559</v>
+        <v>0.006619064379338907</v>
       </c>
       <c r="K5">
         <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>10.2790990583269</v>
+        <v>0.17637</v>
       </c>
       <c r="N5">
-        <v>10.2790990583269</v>
+        <v>0.35274</v>
       </c>
       <c r="O5">
-        <v>0.4766430286515611</v>
+        <v>0.00752214997436319</v>
       </c>
       <c r="P5">
-        <v>0.4766430286515611</v>
+        <v>0.005027372198794217</v>
       </c>
       <c r="Q5">
-        <v>10.26422426332289</v>
+        <v>0.13140423334</v>
       </c>
       <c r="R5">
-        <v>10.26422426332289</v>
+        <v>0.7884254000399999</v>
       </c>
       <c r="S5">
-        <v>0.003413105111126188</v>
+        <v>3.883481445947222E-05</v>
       </c>
       <c r="T5">
-        <v>0.003413105111126188</v>
+        <v>3.327650024271751E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>43.9956846291402</v>
+        <v>0.7450486666666666</v>
       </c>
       <c r="H6">
-        <v>43.9956846291402</v>
+        <v>2.235146</v>
       </c>
       <c r="I6">
-        <v>0.315497132901445</v>
+        <v>0.005162728022151658</v>
       </c>
       <c r="J6">
-        <v>0.315497132901445</v>
+        <v>0.006619064379338907</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.2865138646331</v>
+        <v>12.24224</v>
       </c>
       <c r="N6">
-        <v>11.2865138646331</v>
+        <v>36.72672</v>
       </c>
       <c r="O6">
-        <v>0.5233569713484389</v>
+        <v>0.5221294171466123</v>
       </c>
       <c r="P6">
-        <v>0.5233569713484389</v>
+        <v>0.52344188660458</v>
       </c>
       <c r="Q6">
-        <v>496.5579045508163</v>
+        <v>9.121064589013333</v>
       </c>
       <c r="R6">
-        <v>496.5579045508163</v>
+        <v>82.08958130111999</v>
       </c>
       <c r="S6">
-        <v>0.1651176239444162</v>
+        <v>0.002695612173092528</v>
       </c>
       <c r="T6">
-        <v>0.1651176239444162</v>
+        <v>0.003464695546278331</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>43.9956846291402</v>
+        <v>0.7450486666666666</v>
       </c>
       <c r="H7">
-        <v>43.9956846291402</v>
+        <v>2.235146</v>
       </c>
       <c r="I7">
-        <v>0.315497132901445</v>
+        <v>0.005162728022151658</v>
       </c>
       <c r="J7">
-        <v>0.315497132901445</v>
+        <v>0.006619064379338907</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.2790990583269</v>
+        <v>11.028144</v>
       </c>
       <c r="N7">
-        <v>10.2790990583269</v>
+        <v>33.084432</v>
       </c>
       <c r="O7">
-        <v>0.4766430286515611</v>
+        <v>0.4703484328790246</v>
       </c>
       <c r="P7">
-        <v>0.4766430286515611</v>
+        <v>0.4715307411966257</v>
       </c>
       <c r="Q7">
-        <v>452.2360004418423</v>
+        <v>8.216503983007998</v>
       </c>
       <c r="R7">
-        <v>452.2360004418423</v>
+        <v>73.94853584707199</v>
       </c>
       <c r="S7">
-        <v>0.1503795089570288</v>
+        <v>0.002428281034599658</v>
       </c>
       <c r="T7">
-        <v>0.1503795089570288</v>
+        <v>0.003121092332817858</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>24.7560042915617</v>
+        <v>0.871287</v>
       </c>
       <c r="H8">
-        <v>24.7560042915617</v>
+        <v>2.613861</v>
       </c>
       <c r="I8">
-        <v>0.1775276016709692</v>
+        <v>0.006037481860562736</v>
       </c>
       <c r="J8">
-        <v>0.1775276016709692</v>
+        <v>0.007740574547543281</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M8">
-        <v>11.2865138646331</v>
+        <v>0.17637</v>
       </c>
       <c r="N8">
-        <v>11.2865138646331</v>
+        <v>0.35274</v>
       </c>
       <c r="O8">
-        <v>0.5233569713484389</v>
+        <v>0.00752214997436319</v>
       </c>
       <c r="P8">
-        <v>0.5233569713484389</v>
+        <v>0.005027372198794217</v>
       </c>
       <c r="Q8">
-        <v>279.4089856696277</v>
+        <v>0.15366888819</v>
       </c>
       <c r="R8">
-        <v>279.4089856696277</v>
+        <v>0.92201332914</v>
       </c>
       <c r="S8">
-        <v>0.09291030794127053</v>
+        <v>4.541484402265021E-05</v>
       </c>
       <c r="T8">
-        <v>0.09291030794127053</v>
+        <v>3.891474928301321E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.871287</v>
+      </c>
+      <c r="H9">
+        <v>2.613861</v>
+      </c>
+      <c r="I9">
+        <v>0.006037481860562736</v>
+      </c>
+      <c r="J9">
+        <v>0.007740574547543281</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>12.24224</v>
+      </c>
+      <c r="N9">
+        <v>36.72672</v>
+      </c>
+      <c r="O9">
+        <v>0.5221294171466123</v>
+      </c>
+      <c r="P9">
+        <v>0.52344188660458</v>
+      </c>
+      <c r="Q9">
+        <v>10.66650456288</v>
+      </c>
+      <c r="R9">
+        <v>95.99854106591999</v>
+      </c>
+      <c r="S9">
+        <v>0.003152346884888866</v>
+      </c>
+      <c r="T9">
+        <v>0.004051740944569449</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="B9" t="s">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.871287</v>
+      </c>
+      <c r="H10">
+        <v>2.613861</v>
+      </c>
+      <c r="I10">
+        <v>0.006037481860562736</v>
+      </c>
+      <c r="J10">
+        <v>0.007740574547543281</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>11.028144</v>
+      </c>
+      <c r="N10">
+        <v>33.084432</v>
+      </c>
+      <c r="O10">
+        <v>0.4703484328790246</v>
+      </c>
+      <c r="P10">
+        <v>0.4715307411966257</v>
+      </c>
+      <c r="Q10">
+        <v>9.608678501327999</v>
+      </c>
+      <c r="R10">
+        <v>86.47810651195199</v>
+      </c>
+      <c r="S10">
+        <v>0.002839720131651221</v>
+      </c>
+      <c r="T10">
+        <v>0.003649918853690819</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1.056899666666667</v>
+      </c>
+      <c r="H11">
+        <v>3.170699</v>
+      </c>
+      <c r="I11">
+        <v>0.007323663231443602</v>
+      </c>
+      <c r="J11">
+        <v>0.009389570439025233</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.5</v>
+      </c>
+      <c r="M11">
+        <v>0.17637</v>
+      </c>
+      <c r="N11">
+        <v>0.35274</v>
+      </c>
+      <c r="O11">
+        <v>0.00752214997436319</v>
+      </c>
+      <c r="P11">
+        <v>0.005027372198794217</v>
+      </c>
+      <c r="Q11">
+        <v>0.18640539421</v>
+      </c>
+      <c r="R11">
+        <v>1.11843236526</v>
+      </c>
+      <c r="S11">
+        <v>5.508969318864812E-05</v>
+      </c>
+      <c r="T11">
+        <v>4.720486538377547E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>1.056899666666667</v>
+      </c>
+      <c r="H12">
+        <v>3.170699</v>
+      </c>
+      <c r="I12">
+        <v>0.007323663231443602</v>
+      </c>
+      <c r="J12">
+        <v>0.009389570439025233</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>12.24224</v>
+      </c>
+      <c r="N12">
+        <v>36.72672</v>
+      </c>
+      <c r="O12">
+        <v>0.5221294171466123</v>
+      </c>
+      <c r="P12">
+        <v>0.52344188660458</v>
+      </c>
+      <c r="Q12">
+        <v>12.93881937525333</v>
+      </c>
+      <c r="R12">
+        <v>116.44937437728</v>
+      </c>
+      <c r="S12">
+        <v>0.003823900014411723</v>
+      </c>
+      <c r="T12">
+        <v>0.004914894465009962</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1.056899666666667</v>
+      </c>
+      <c r="H13">
+        <v>3.170699</v>
+      </c>
+      <c r="I13">
+        <v>0.007323663231443602</v>
+      </c>
+      <c r="J13">
+        <v>0.009389570439025233</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>11.028144</v>
+      </c>
+      <c r="N13">
+        <v>33.084432</v>
+      </c>
+      <c r="O13">
+        <v>0.4703484328790246</v>
+      </c>
+      <c r="P13">
+        <v>0.4715307411966257</v>
+      </c>
+      <c r="Q13">
+        <v>11.655641717552</v>
+      </c>
+      <c r="R13">
+        <v>104.900775457968</v>
+      </c>
+      <c r="S13">
+        <v>0.003444673523843231</v>
+      </c>
+      <c r="T13">
+        <v>0.004427471108631494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>46.38387733333334</v>
+      </c>
+      <c r="H14">
+        <v>139.151632</v>
+      </c>
+      <c r="I14">
+        <v>0.321411679529899</v>
+      </c>
+      <c r="J14">
+        <v>0.4120776050862342</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.5</v>
+      </c>
+      <c r="M14">
+        <v>0.17637</v>
+      </c>
+      <c r="N14">
+        <v>0.35274</v>
+      </c>
+      <c r="O14">
+        <v>0.00752214997436319</v>
+      </c>
+      <c r="P14">
+        <v>0.005027372198794217</v>
+      </c>
+      <c r="Q14">
+        <v>8.180724445280001</v>
+      </c>
+      <c r="R14">
+        <v>49.08434667168</v>
+      </c>
+      <c r="S14">
+        <v>0.002417706856935859</v>
+      </c>
+      <c r="T14">
+        <v>0.002071667495556236</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>46.38387733333334</v>
+      </c>
+      <c r="H15">
+        <v>139.151632</v>
+      </c>
+      <c r="I15">
+        <v>0.321411679529899</v>
+      </c>
+      <c r="J15">
+        <v>0.4120776050862342</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.24224</v>
+      </c>
+      <c r="N15">
+        <v>36.72672</v>
+      </c>
+      <c r="O15">
+        <v>0.5221294171466123</v>
+      </c>
+      <c r="P15">
+        <v>0.52344188660458</v>
+      </c>
+      <c r="Q15">
+        <v>567.8425584452267</v>
+      </c>
+      <c r="R15">
+        <v>5110.583026007041</v>
+      </c>
+      <c r="S15">
+        <v>0.1678184928970599</v>
+      </c>
+      <c r="T15">
+        <v>0.2156986790338355</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>46.38387733333334</v>
+      </c>
+      <c r="H16">
+        <v>139.151632</v>
+      </c>
+      <c r="I16">
+        <v>0.321411679529899</v>
+      </c>
+      <c r="J16">
+        <v>0.4120776050862342</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>11.028144</v>
+      </c>
+      <c r="N16">
+        <v>33.084432</v>
+      </c>
+      <c r="O16">
+        <v>0.4703484328790246</v>
+      </c>
+      <c r="P16">
+        <v>0.4715307411966257</v>
+      </c>
+      <c r="Q16">
+        <v>511.528078510336</v>
+      </c>
+      <c r="R16">
+        <v>4603.752706593024</v>
+      </c>
+      <c r="S16">
+        <v>0.1511754797759032</v>
+      </c>
+      <c r="T16">
+        <v>0.1943072585568424</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>24.7560042915617</v>
-      </c>
-      <c r="H9">
-        <v>24.7560042915617</v>
-      </c>
-      <c r="I9">
-        <v>0.1775276016709692</v>
-      </c>
-      <c r="J9">
-        <v>0.1775276016709692</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>10.2790990583269</v>
-      </c>
-      <c r="N9">
-        <v>10.2790990583269</v>
-      </c>
-      <c r="O9">
-        <v>0.4766430286515611</v>
-      </c>
-      <c r="P9">
-        <v>0.4766430286515611</v>
-      </c>
-      <c r="Q9">
-        <v>254.4694204013285</v>
-      </c>
-      <c r="R9">
-        <v>254.4694204013285</v>
-      </c>
-      <c r="S9">
-        <v>0.08461729372969871</v>
-      </c>
-      <c r="T9">
-        <v>0.08461729372969871</v>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>25.205092</v>
+      </c>
+      <c r="H17">
+        <v>50.410184</v>
+      </c>
+      <c r="I17">
+        <v>0.17465575148466</v>
+      </c>
+      <c r="J17">
+        <v>0.1492825315528919</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.5</v>
+      </c>
+      <c r="M17">
+        <v>0.17637</v>
+      </c>
+      <c r="N17">
+        <v>0.35274</v>
+      </c>
+      <c r="O17">
+        <v>0.00752214997436319</v>
+      </c>
+      <c r="P17">
+        <v>0.005027372198794217</v>
+      </c>
+      <c r="Q17">
+        <v>4.44542207604</v>
+      </c>
+      <c r="R17">
+        <v>17.78168830416</v>
+      </c>
+      <c r="S17">
+        <v>0.001313786756552719</v>
+      </c>
+      <c r="T17">
+        <v>0.0007504988488946291</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>25.205092</v>
+      </c>
+      <c r="H18">
+        <v>50.410184</v>
+      </c>
+      <c r="I18">
+        <v>0.17465575148466</v>
+      </c>
+      <c r="J18">
+        <v>0.1492825315528919</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>12.24224</v>
+      </c>
+      <c r="N18">
+        <v>36.72672</v>
+      </c>
+      <c r="O18">
+        <v>0.5221294171466123</v>
+      </c>
+      <c r="P18">
+        <v>0.52344188660458</v>
+      </c>
+      <c r="Q18">
+        <v>308.5667854860801</v>
+      </c>
+      <c r="R18">
+        <v>1851.40071291648</v>
+      </c>
+      <c r="S18">
+        <v>0.09119290572398908</v>
+      </c>
+      <c r="T18">
+        <v>0.07814072995315348</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>25.205092</v>
+      </c>
+      <c r="H19">
+        <v>50.410184</v>
+      </c>
+      <c r="I19">
+        <v>0.17465575148466</v>
+      </c>
+      <c r="J19">
+        <v>0.1492825315528919</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>11.028144</v>
+      </c>
+      <c r="N19">
+        <v>33.084432</v>
+      </c>
+      <c r="O19">
+        <v>0.4703484328790246</v>
+      </c>
+      <c r="P19">
+        <v>0.4715307411966257</v>
+      </c>
+      <c r="Q19">
+        <v>277.965384109248</v>
+      </c>
+      <c r="R19">
+        <v>1667.792304655488</v>
+      </c>
+      <c r="S19">
+        <v>0.08214905900411819</v>
+      </c>
+      <c r="T19">
+        <v>0.07039130275084378</v>
       </c>
     </row>
   </sheetData>
